--- a/Documentação/Product Backlog/Product Backlog v1.xlsx
+++ b/Documentação/Product Backlog/Product Backlog v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valemobibr-my.sharepoint.com/personal/vinicius_cano_valemobi_com_br/Documents/Documentos/ads3/grupoPi3Semestre/Documentação/Product Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{306DE393-34B6-4334-B0A9-F0092F412B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53120734-465F-43D0-A28F-A35A78EEDECB}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{306DE393-34B6-4334-B0A9-F0092F412B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B7586B3-BB92-44B5-8DD6-D47F4DF61D1B}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>João</t>
   </si>
@@ -240,22 +240,79 @@
     <t xml:space="preserve">Artefato (ferramenta) </t>
   </si>
   <si>
-    <t xml:space="preserve">US#1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US#2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US#3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US#4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US#5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US#6 - </t>
+    <t>CC - Site Institucional</t>
+  </si>
+  <si>
+    <t>Projeto deverá ter site para divulgação do sistema.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CC - Cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Site institucional deverá ter uma página de cadastro para o usuário solicitar acesso ao sistema.</t>
+  </si>
+  <si>
+    <t>Site institucional deverá ter uma página de login para o usuário acessar o sistema.</t>
+  </si>
+  <si>
+    <t>CC - Assinatura</t>
+  </si>
+  <si>
+    <t>Site institucional deverá ter uma página de assinatura para o usuário selecionar o plano desejado.</t>
+  </si>
+  <si>
+    <t>CC - HelpDesk</t>
+  </si>
+  <si>
+    <t>Deverá ter chat para facilitar o contato do cliente caso aconteça algum problema no sistema.</t>
+  </si>
+  <si>
+    <t>US#1 /1.1 - Controle Financeiro</t>
+  </si>
+  <si>
+    <t>Sistema deverá ter módulos de controle de fluxo de caixa.</t>
+  </si>
+  <si>
+    <t>US#3 - Estoque de Peças</t>
+  </si>
+  <si>
+    <t>US#2 - Dashboard</t>
+  </si>
+  <si>
+    <t>Sistema deverá mostrar os status do serviço oferecido.</t>
+  </si>
+  <si>
+    <t>Sistema deverá mostrar a quantidade de peças / materiais em estoque.</t>
+  </si>
+  <si>
+    <t>US#3.1 - Alerta Peças</t>
+  </si>
+  <si>
+    <t>Sistema deverá alertar o usuário quando o estoque estiver acabando.</t>
+  </si>
+  <si>
+    <t>US#4 - Cadastro de Veículo</t>
+  </si>
+  <si>
+    <t>Sistema deverá cadastrar o carro do usuário.</t>
+  </si>
+  <si>
+    <t>US#5 - Comunicação com usuário</t>
+  </si>
+  <si>
+    <t>Usuário conseguirá enviar alerta do status do serviço para o cliente.</t>
+  </si>
+  <si>
+    <t>US#4 - Cadastro de Cliente</t>
+  </si>
+  <si>
+    <t>Sistema deverá cadastrar novos clientes.</t>
+  </si>
+  <si>
+    <t>CC - Tela de Login</t>
   </si>
 </sst>
 </file>
@@ -265,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -403,10 +460,6 @@
       <sz val="11"/>
       <name val="Exo"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Patr"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -446,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -616,6 +669,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -752,15 +818,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -777,9 +834,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -806,7 +872,7 @@
     <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -817,6 +883,48 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFEFB661"/>
@@ -938,38 +1046,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFB661"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1535,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -1558,15 +1634,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" s="22" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="B3" s="33" t="s">
@@ -1591,143 +1667,209 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="34" t="s">
+        <v>50</v>
+      </c>
       <c r="E4" s="23"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="34"/>
+      <c r="C6" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="26"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24"/>
+      <c r="C8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="32"/>
+      <c r="C9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="E10" s="26"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B11" s="40" t="s">
+    <row r="11" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="26"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B12" s="40" t="s">
+    <row r="12" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B13" s="40" t="s">
+      <c r="H12" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="2:8" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B14" s="41" t="s">
+    <row r="14" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:8" s="25" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="H14" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" s="25" customFormat="1" ht="23.1" customHeight="1">
       <c r="C16" s="27"/>
@@ -1803,68 +1945,108 @@
       <c r="G25" s="29"/>
       <c r="H25" s="25"/>
     </row>
+    <row r="26" spans="2:8" ht="23.1" customHeight="1">
+      <c r="B26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D11:E11 E4 D7 B4:C14">
-    <cfRule type="expression" dxfId="24" priority="58">
+  <conditionalFormatting sqref="D12:E12 D8 E4:E5 B4:C14 B15">
+    <cfRule type="expression" dxfId="25" priority="67">
       <formula>$B4="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="59">
+    <cfRule type="expression" dxfId="24" priority="68">
       <formula>$B4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="60">
+    <cfRule type="expression" dxfId="23" priority="69">
       <formula>$B4="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="61">
+    <cfRule type="expression" dxfId="22" priority="70">
       <formula>$B4="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10 D12:D14">
-    <cfRule type="expression" dxfId="16" priority="25">
+  <conditionalFormatting sqref="D10:D11 D13:D14">
+    <cfRule type="expression" dxfId="21" priority="34">
       <formula>$B$3="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="20" priority="39">
+      <formula>$B10="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="40">
+      <formula>$B10="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="41">
+      <formula>$B10="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="42">
+      <formula>$B10="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D7">
+    <cfRule type="expression" dxfId="16" priority="30">
+      <formula>$B4="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="31">
+      <formula>$B4="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="32">
+      <formula>$B4="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="33">
+      <formula>$B4="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$B9="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="31">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$B9="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="32">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$B9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="33">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D6">
-    <cfRule type="expression" dxfId="11" priority="21">
-      <formula>$B4="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22">
-      <formula>$B4="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="23">
-      <formula>$B4="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24">
-      <formula>$B4="Dropped"</formula>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$B15="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$B15="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$B15="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$B15="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$B8="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$B8="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$B8="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$B8="Dropped"</formula>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$B$3="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$B15="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B15="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$B15="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$B15="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1881,13 +2063,13 @@
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B14</xm:sqref>
+          <xm:sqref>B4:B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E14</xm:sqref>
+          <xm:sqref>E4:E15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1900,7 +2082,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
